--- a/TC_Template/Main.rvl.xlsx
+++ b/TC_Template/Main.rvl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="142">
   <si>
     <t>Flow</t>
   </si>
@@ -428,6 +428,18 @@
   </si>
   <si>
     <t>OK2</t>
+  </si>
+  <si>
+    <t>Launch</t>
+  </si>
+  <si>
+    <t>ChangeCompany</t>
+  </si>
+  <si>
+    <t>Navigate</t>
+  </si>
+  <si>
+    <t>Close</t>
   </si>
 </sst>
 </file>
@@ -448,7 +460,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="567">
+  <borders count="583">
     <border>
       <left/>
       <right/>
@@ -1022,11 +1034,27 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="567">
+  <cellXfs count="583">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -1594,6 +1622,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="564" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="565" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="566" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="567" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="568" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="569" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="570" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="571" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="572" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="573" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="574" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="575" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="576" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="577" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="578" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="579" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="580" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="581" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="582" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1603,7 +1647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H20"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="true"/>
@@ -1746,237 +1790,177 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="504"/>
+      <c r="A9" s="501" t="s">
+        <v>77</v>
+      </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="505"/>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" t="s">
-        <v>94</v>
-      </c>
+      <c r="A10" s="502"/>
     </row>
     <row r="11">
-      <c r="A11" s="506"/>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" t="s">
-        <v>97</v>
-      </c>
+      <c r="A11" s="17"/>
+      <c r="B11" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="24"/>
     </row>
     <row r="12">
-      <c r="A12" s="507"/>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" t="s">
-        <v>97</v>
-      </c>
+      <c r="A12" s="25"/>
+      <c r="B12" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="32"/>
     </row>
     <row r="13">
-      <c r="A13" s="501" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" t="s">
-        <v>7</v>
-      </c>
+      <c r="A13" s="33"/>
+      <c r="B13" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="40"/>
     </row>
     <row r="14">
-      <c r="A14" s="502"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="48"/>
     </row>
     <row r="15">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18" t="s">
+      <c r="A15" s="565"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="533"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="530"/>
+      <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="24"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26" t="s">
+      <c r="C17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="137" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" s="32"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="40"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="41"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="48"/>
+      <c r="C18" s="139" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="140" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" s="141" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="142" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="143" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="144"/>
     </row>
     <row r="19">
-      <c r="A19" s="565"/>
+      <c r="A19" s="145"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="152"/>
     </row>
     <row r="20">
-      <c r="A20" s="533"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="530"/>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>124</v>
-      </c>
-      <c r="D21" t="s">
-        <v>125</v>
-      </c>
-      <c r="E21" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="137" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="138" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="139" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="140" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="141" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="142" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="143" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="144"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="145"/>
-      <c r="B23" s="146"/>
-      <c r="C23" s="147"/>
-      <c r="D23" s="148"/>
-      <c r="E23" s="149"/>
-      <c r="F23" s="150"/>
-      <c r="G23" s="151"/>
-      <c r="H23" s="152"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="153"/>
-      <c r="B24" s="154"/>
-      <c r="C24" s="155"/>
-      <c r="D24" s="156"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="160"/>
+      <c r="A20" s="153"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="159"/>
+      <c r="H20" s="160"/>
     </row>
   </sheetData>
 </worksheet>
@@ -1984,7 +1968,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H30"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="true"/>
@@ -2027,304 +2011,284 @@
       <c r="A2" s="434"/>
     </row>
     <row r="3">
-      <c r="A3" s="191"/>
-      <c r="B3" s="192"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="195"/>
-      <c r="F3" s="196"/>
-      <c r="G3" s="197"/>
-      <c r="H3" s="198"/>
+      <c r="A3" s="207"/>
+      <c r="B3" s="208"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="213"/>
+      <c r="H3" s="214"/>
     </row>
     <row r="4">
-      <c r="A4" s="199"/>
-      <c r="B4" s="200"/>
-      <c r="C4" s="201"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="203"/>
-      <c r="F4" s="204"/>
-      <c r="G4" s="205"/>
-      <c r="H4" s="206"/>
+      <c r="A4" s="215"/>
+      <c r="B4" s="216"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="222"/>
     </row>
     <row r="5">
-      <c r="A5" s="207"/>
-      <c r="B5" s="208"/>
-      <c r="C5" s="209"/>
-      <c r="D5" s="210"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="212"/>
-      <c r="G5" s="213"/>
-      <c r="H5" s="214"/>
+      <c r="A5" s="223"/>
+      <c r="B5" s="224"/>
+      <c r="C5" s="225"/>
+      <c r="D5" s="226"/>
+      <c r="E5" s="227"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="229"/>
+      <c r="H5" s="230"/>
     </row>
     <row r="6">
-      <c r="A6" s="215"/>
-      <c r="B6" s="216"/>
-      <c r="C6" s="217"/>
-      <c r="D6" s="218"/>
-      <c r="E6" s="219"/>
-      <c r="F6" s="220"/>
-      <c r="G6" s="221"/>
-      <c r="H6" s="222"/>
+      <c r="A6" s="231"/>
+      <c r="B6" s="232"/>
+      <c r="C6" s="233"/>
+      <c r="D6" s="234"/>
+      <c r="E6" s="235"/>
+      <c r="F6" s="236"/>
+      <c r="G6" s="237"/>
+      <c r="H6" s="238"/>
     </row>
     <row r="7">
-      <c r="A7" s="223"/>
-      <c r="B7" s="224"/>
-      <c r="C7" s="225"/>
-      <c r="D7" s="226"/>
-      <c r="E7" s="227"/>
-      <c r="F7" s="228"/>
-      <c r="G7" s="229"/>
-      <c r="H7" s="230"/>
+      <c r="A7" s="239"/>
+      <c r="B7" s="240"/>
+      <c r="C7" s="241"/>
+      <c r="D7" s="242"/>
+      <c r="E7" s="243"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="245"/>
+      <c r="H7" s="246"/>
     </row>
     <row r="8">
-      <c r="A8" s="231"/>
-      <c r="B8" s="232"/>
-      <c r="C8" s="233"/>
-      <c r="D8" s="234"/>
-      <c r="E8" s="235"/>
-      <c r="F8" s="236"/>
-      <c r="G8" s="237"/>
-      <c r="H8" s="238"/>
+      <c r="A8" s="247"/>
+      <c r="B8" s="248"/>
+      <c r="C8" s="249"/>
+      <c r="D8" s="250"/>
+      <c r="E8" s="251"/>
+      <c r="F8" s="252"/>
+      <c r="G8" s="253"/>
+      <c r="H8" s="254"/>
     </row>
     <row r="9">
-      <c r="A9" s="239"/>
-      <c r="B9" s="240"/>
-      <c r="C9" s="241"/>
-      <c r="D9" s="242"/>
-      <c r="E9" s="243"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="245"/>
-      <c r="H9" s="246"/>
+      <c r="A9" s="255"/>
+      <c r="B9" s="256"/>
+      <c r="C9" s="257"/>
+      <c r="D9" s="258"/>
+      <c r="E9" s="259"/>
+      <c r="F9" s="260"/>
+      <c r="G9" s="261"/>
+      <c r="H9" s="262"/>
     </row>
     <row r="10">
-      <c r="A10" s="247"/>
-      <c r="B10" s="248"/>
-      <c r="C10" s="249"/>
-      <c r="D10" s="250"/>
-      <c r="E10" s="251"/>
-      <c r="F10" s="252"/>
-      <c r="G10" s="253"/>
-      <c r="H10" s="254"/>
+      <c r="A10" s="263"/>
+      <c r="B10" s="264"/>
+      <c r="C10" s="265"/>
+      <c r="D10" s="266"/>
+      <c r="E10" s="267"/>
+      <c r="F10" s="268"/>
+      <c r="G10" s="269"/>
+      <c r="H10" s="270"/>
     </row>
     <row r="11">
-      <c r="A11" s="255"/>
-      <c r="B11" s="256"/>
-      <c r="C11" s="257"/>
-      <c r="D11" s="258"/>
-      <c r="E11" s="259"/>
-      <c r="F11" s="260"/>
-      <c r="G11" s="261"/>
-      <c r="H11" s="262"/>
+      <c r="A11" s="271"/>
+      <c r="B11" s="272"/>
+      <c r="C11" s="273"/>
+      <c r="D11" s="274"/>
+      <c r="E11" s="275"/>
+      <c r="F11" s="276"/>
+      <c r="G11" s="277"/>
+      <c r="H11" s="278"/>
     </row>
     <row r="12">
-      <c r="A12" s="263"/>
-      <c r="B12" s="264"/>
-      <c r="C12" s="265"/>
-      <c r="D12" s="266"/>
-      <c r="E12" s="267"/>
-      <c r="F12" s="268"/>
-      <c r="G12" s="269"/>
-      <c r="H12" s="270"/>
+      <c r="A12" s="279"/>
+      <c r="B12" s="280"/>
+      <c r="C12" s="281"/>
+      <c r="D12" s="282"/>
+      <c r="E12" s="283"/>
+      <c r="F12" s="284"/>
+      <c r="G12" s="285"/>
+      <c r="H12" s="286"/>
     </row>
     <row r="13">
-      <c r="A13" s="271"/>
-      <c r="B13" s="272"/>
-      <c r="C13" s="273"/>
-      <c r="D13" s="274"/>
-      <c r="E13" s="275"/>
-      <c r="F13" s="276"/>
-      <c r="G13" s="277"/>
-      <c r="H13" s="278"/>
+      <c r="A13" s="287"/>
+      <c r="B13" s="288"/>
+      <c r="C13" s="289"/>
+      <c r="D13" s="290"/>
+      <c r="E13" s="291"/>
+      <c r="F13" s="292"/>
+      <c r="G13" s="293"/>
+      <c r="H13" s="294"/>
     </row>
     <row r="14">
-      <c r="A14" s="279"/>
-      <c r="B14" s="280"/>
-      <c r="C14" s="281"/>
-      <c r="D14" s="282"/>
-      <c r="E14" s="283"/>
-      <c r="F14" s="284"/>
-      <c r="G14" s="285"/>
-      <c r="H14" s="286"/>
+      <c r="A14" s="295"/>
+      <c r="B14" s="296"/>
+      <c r="C14" s="297"/>
+      <c r="D14" s="298"/>
+      <c r="E14" s="299"/>
+      <c r="F14" s="300"/>
+      <c r="G14" s="301"/>
+      <c r="H14" s="302"/>
     </row>
     <row r="15">
-      <c r="A15" s="287"/>
-      <c r="B15" s="288"/>
-      <c r="C15" s="289"/>
-      <c r="D15" s="290"/>
-      <c r="E15" s="291"/>
-      <c r="F15" s="292"/>
-      <c r="G15" s="293"/>
-      <c r="H15" s="294"/>
+      <c r="A15" s="303"/>
+      <c r="B15" s="304"/>
+      <c r="C15" s="305"/>
+      <c r="D15" s="306"/>
+      <c r="E15" s="307"/>
+      <c r="F15" s="308"/>
+      <c r="G15" s="309"/>
+      <c r="H15" s="310"/>
     </row>
     <row r="16">
-      <c r="A16" s="295"/>
-      <c r="B16" s="296"/>
-      <c r="C16" s="297"/>
-      <c r="D16" s="298"/>
-      <c r="E16" s="299"/>
-      <c r="F16" s="300"/>
-      <c r="G16" s="301"/>
-      <c r="H16" s="302"/>
+      <c r="A16" s="311"/>
+      <c r="B16" s="312"/>
+      <c r="C16" s="313"/>
+      <c r="D16" s="314"/>
+      <c r="E16" s="315"/>
+      <c r="F16" s="316"/>
+      <c r="G16" s="317"/>
+      <c r="H16" s="318"/>
     </row>
     <row r="17">
-      <c r="A17" s="303"/>
-      <c r="B17" s="304"/>
-      <c r="C17" s="305"/>
-      <c r="D17" s="306"/>
-      <c r="E17" s="307"/>
-      <c r="F17" s="308"/>
-      <c r="G17" s="309"/>
-      <c r="H17" s="310"/>
+      <c r="A17" s="319"/>
+      <c r="B17" s="320"/>
+      <c r="C17" s="321"/>
+      <c r="D17" s="322"/>
+      <c r="E17" s="323"/>
+      <c r="F17" s="324"/>
+      <c r="G17" s="325"/>
+      <c r="H17" s="326"/>
     </row>
     <row r="18">
-      <c r="A18" s="311"/>
-      <c r="B18" s="312"/>
-      <c r="C18" s="313"/>
-      <c r="D18" s="314"/>
-      <c r="E18" s="315"/>
-      <c r="F18" s="316"/>
-      <c r="G18" s="317"/>
-      <c r="H18" s="318"/>
+      <c r="A18" s="327"/>
+      <c r="B18" s="328"/>
+      <c r="C18" s="329"/>
+      <c r="D18" s="330"/>
+      <c r="E18" s="331"/>
+      <c r="F18" s="332"/>
+      <c r="G18" s="333"/>
+      <c r="H18" s="334"/>
     </row>
     <row r="19">
-      <c r="A19" s="319"/>
-      <c r="B19" s="320"/>
-      <c r="C19" s="321"/>
-      <c r="D19" s="322"/>
-      <c r="E19" s="323"/>
-      <c r="F19" s="324"/>
-      <c r="G19" s="325"/>
-      <c r="H19" s="326"/>
+      <c r="A19" s="335"/>
+      <c r="B19" s="336"/>
+      <c r="C19" s="337"/>
+      <c r="D19" s="338"/>
+      <c r="E19" s="339"/>
+      <c r="F19" s="340"/>
+      <c r="G19" s="341"/>
+      <c r="H19" s="342"/>
     </row>
     <row r="20">
-      <c r="A20" s="327"/>
-      <c r="B20" s="328"/>
-      <c r="C20" s="329"/>
-      <c r="D20" s="330"/>
-      <c r="E20" s="331"/>
-      <c r="F20" s="332"/>
-      <c r="G20" s="333"/>
-      <c r="H20" s="334"/>
+      <c r="A20" s="343"/>
+      <c r="B20" s="344"/>
+      <c r="C20" s="345"/>
+      <c r="D20" s="346"/>
+      <c r="E20" s="347"/>
+      <c r="F20" s="348"/>
+      <c r="G20" s="349"/>
+      <c r="H20" s="350"/>
     </row>
     <row r="21">
-      <c r="A21" s="335"/>
-      <c r="B21" s="336"/>
-      <c r="C21" s="337"/>
-      <c r="D21" s="338"/>
-      <c r="E21" s="339"/>
-      <c r="F21" s="340"/>
-      <c r="G21" s="341"/>
-      <c r="H21" s="342"/>
+      <c r="A21" s="351"/>
+      <c r="B21" s="352"/>
+      <c r="C21" s="353"/>
+      <c r="D21" s="354"/>
+      <c r="E21" s="355"/>
+      <c r="F21" s="356"/>
+      <c r="G21" s="357"/>
+      <c r="H21" s="358"/>
     </row>
     <row r="22">
-      <c r="A22" s="343"/>
-      <c r="B22" s="344"/>
-      <c r="C22" s="345"/>
-      <c r="D22" s="346"/>
-      <c r="E22" s="347"/>
-      <c r="F22" s="348"/>
-      <c r="G22" s="349"/>
-      <c r="H22" s="350"/>
+      <c r="A22" s="359"/>
+      <c r="B22" s="360"/>
+      <c r="C22" s="361"/>
+      <c r="D22" s="362"/>
+      <c r="E22" s="363"/>
+      <c r="F22" s="364"/>
+      <c r="G22" s="365"/>
+      <c r="H22" s="366"/>
     </row>
     <row r="23">
-      <c r="A23" s="351"/>
-      <c r="B23" s="352"/>
-      <c r="C23" s="353"/>
-      <c r="D23" s="354"/>
-      <c r="E23" s="355"/>
-      <c r="F23" s="356"/>
-      <c r="G23" s="357"/>
-      <c r="H23" s="358"/>
+      <c r="A23" s="367"/>
+      <c r="B23" s="368"/>
+      <c r="C23" s="369"/>
+      <c r="D23" s="370"/>
+      <c r="E23" s="371"/>
+      <c r="F23" s="372"/>
+      <c r="G23" s="373"/>
+      <c r="H23" s="374"/>
     </row>
     <row r="24">
-      <c r="A24" s="359"/>
-      <c r="B24" s="360"/>
-      <c r="C24" s="361"/>
-      <c r="D24" s="362"/>
-      <c r="E24" s="363"/>
-      <c r="F24" s="364"/>
-      <c r="G24" s="365"/>
-      <c r="H24" s="366"/>
+      <c r="A24" s="375"/>
+      <c r="B24" s="376"/>
+      <c r="C24" s="377"/>
+      <c r="D24" s="378"/>
+      <c r="E24" s="379"/>
+      <c r="F24" s="380"/>
+      <c r="G24" s="381"/>
+      <c r="H24" s="382"/>
     </row>
     <row r="25">
-      <c r="A25" s="367"/>
-      <c r="B25" s="368"/>
-      <c r="C25" s="369"/>
-      <c r="D25" s="370"/>
-      <c r="E25" s="371"/>
-      <c r="F25" s="372"/>
-      <c r="G25" s="373"/>
-      <c r="H25" s="374"/>
+      <c r="A25" s="383"/>
+      <c r="B25" s="384"/>
+      <c r="C25" s="385"/>
+      <c r="D25" s="386"/>
+      <c r="E25" s="387"/>
+      <c r="F25" s="388"/>
+      <c r="G25" s="389"/>
+      <c r="H25" s="390"/>
     </row>
     <row r="26">
-      <c r="A26" s="375"/>
-      <c r="B26" s="376"/>
-      <c r="C26" s="377"/>
-      <c r="D26" s="378"/>
-      <c r="E26" s="379"/>
-      <c r="F26" s="380"/>
-      <c r="G26" s="381"/>
-      <c r="H26" s="382"/>
+      <c r="A26" s="391"/>
+      <c r="B26" s="392"/>
+      <c r="C26" s="393"/>
+      <c r="D26" s="394"/>
+      <c r="E26" s="395"/>
+      <c r="F26" s="396"/>
+      <c r="G26" s="397"/>
+      <c r="H26" s="398"/>
     </row>
     <row r="27">
-      <c r="A27" s="383"/>
-      <c r="B27" s="384"/>
-      <c r="C27" s="385"/>
-      <c r="D27" s="386"/>
-      <c r="E27" s="387"/>
-      <c r="F27" s="388"/>
-      <c r="G27" s="389"/>
-      <c r="H27" s="390"/>
+      <c r="A27" s="399"/>
+      <c r="B27" s="400"/>
+      <c r="C27" s="401"/>
+      <c r="D27" s="402"/>
+      <c r="E27" s="403"/>
+      <c r="F27" s="404"/>
+      <c r="G27" s="405"/>
+      <c r="H27" s="406"/>
     </row>
     <row r="28">
-      <c r="A28" s="391"/>
-      <c r="B28" s="392"/>
-      <c r="C28" s="393"/>
-      <c r="D28" s="394"/>
-      <c r="E28" s="395"/>
-      <c r="F28" s="396"/>
-      <c r="G28" s="397"/>
-      <c r="H28" s="398"/>
+      <c r="A28" s="407"/>
+      <c r="B28" s="408"/>
+      <c r="C28" s="409"/>
+      <c r="D28" s="410"/>
+      <c r="E28" s="411"/>
+      <c r="F28" s="412"/>
+      <c r="G28" s="413"/>
+      <c r="H28" s="414"/>
     </row>
     <row r="29">
-      <c r="A29" s="399"/>
-      <c r="B29" s="400"/>
-      <c r="C29" s="401"/>
-      <c r="D29" s="402"/>
-      <c r="E29" s="403"/>
-      <c r="F29" s="404"/>
-      <c r="G29" s="405"/>
-      <c r="H29" s="406"/>
+      <c r="A29" s="415"/>
+      <c r="B29" s="416"/>
+      <c r="C29" s="417"/>
+      <c r="D29" s="418"/>
+      <c r="E29" s="419"/>
+      <c r="F29" s="420"/>
+      <c r="G29" s="421"/>
+      <c r="H29" s="422"/>
     </row>
     <row r="30">
-      <c r="A30" s="407"/>
-      <c r="B30" s="408"/>
-      <c r="C30" s="409"/>
-      <c r="D30" s="410"/>
-      <c r="E30" s="411"/>
-      <c r="F30" s="412"/>
-      <c r="G30" s="413"/>
-      <c r="H30" s="414"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="415"/>
-      <c r="B31" s="416"/>
-      <c r="C31" s="417"/>
-      <c r="D31" s="418"/>
-      <c r="E31" s="419"/>
-      <c r="F31" s="420"/>
-      <c r="G31" s="421"/>
-      <c r="H31" s="422"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="423"/>
-      <c r="B32" s="424"/>
-      <c r="C32" s="425"/>
-      <c r="D32" s="426"/>
-      <c r="E32" s="427"/>
-      <c r="F32" s="428"/>
-      <c r="G32" s="429"/>
-      <c r="H32" s="430"/>
+      <c r="A30" s="423"/>
+      <c r="B30" s="424"/>
+      <c r="C30" s="425"/>
+      <c r="D30" s="426"/>
+      <c r="E30" s="427"/>
+      <c r="F30" s="428"/>
+      <c r="G30" s="429"/>
+      <c r="H30" s="430"/>
     </row>
   </sheetData>
 </worksheet>
